--- a/tbx/sandbox/gui/tables/ExactZeros.xlsx
+++ b/tbx/sandbox/gui/tables/ExactZeros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myself/Documents/ogr-external-projects/ecb-bear/BEAR-toolbox/tbx/sandbox/gui/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5AA711-CF2B-9645-9D39-C561B7744823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E37E1E-60F4-B943-A6CB-2C3B29038F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="820" windowWidth="28160" windowHeight="17440" xr2:uid="{373502F1-0B0B-2440-B783-458BCD05DD7E}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
